--- a/backend-python/general_document/财务历史库存模板.xlsx
+++ b/backend-python/general_document/财务历史库存模板.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>健诚鞋业历史库存单</t>
   </si>
@@ -79,10 +79,16 @@
     <t>未审核出库数</t>
   </si>
   <si>
-    <t>已审核入库数</t>
-  </si>
-  <si>
-    <t>已审核出库数</t>
+    <t>采购入库数</t>
+  </si>
+  <si>
+    <t>生产出库数</t>
+  </si>
+  <si>
+    <t>盘库入库数</t>
+  </si>
+  <si>
+    <t>盘库出库数</t>
   </si>
   <si>
     <t>库存数量</t>
@@ -97,7 +103,7 @@
     <t>库存均价</t>
   </si>
   <si>
-    <t>总价</t>
+    <t>库存总金额</t>
   </si>
 </sst>
 </file>
@@ -754,10 +760,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1073,10 +1079,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:V7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
@@ -1094,15 +1100,17 @@
     <col min="12" max="12" width="15.125" style="1" customWidth="1"/>
     <col min="13" max="13" width="14.25" style="1" customWidth="1"/>
     <col min="14" max="14" width="13.875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="14.75" style="1" customWidth="1"/>
-    <col min="17" max="17" width="12.5" style="1" customWidth="1"/>
-    <col min="18" max="18" width="11.625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="15.125" style="1" customWidth="1"/>
-    <col min="20" max="16383" width="9" style="1"/>
+    <col min="15" max="15" width="12" style="1" customWidth="1"/>
+    <col min="16" max="16" width="11.625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="11.125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="14.75" style="1" customWidth="1"/>
+    <col min="19" max="19" width="12.5" style="1" customWidth="1"/>
+    <col min="20" max="20" width="11.625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="15.125" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31.5" spans="2:20">
+    <row r="1" ht="31.5" spans="1:22">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1124,8 +1132,10 @@
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
     </row>
-    <row r="2" spans="2:16">
+    <row r="2" spans="1:22">
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1141,14 +1151,16 @@
       <c r="J2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
     </row>
-    <row r="3" ht="9" customHeight="1" spans="2:16">
+    <row r="3" ht="9" customHeight="1" spans="1:22">
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -1158,14 +1170,16 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
     </row>
-    <row r="4" ht="6" customHeight="1" spans="2:16">
+    <row r="4" ht="6" customHeight="1" spans="1:22">
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -1175,91 +1189,101 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
     </row>
-    <row r="5" spans="2:15">
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
+    <row r="5" spans="1:22">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
     </row>
-    <row r="7" ht="28.5" spans="1:19">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:22">
+      <c r="A7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="L7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="M7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="N7" s="4" t="s">
+      <c r="N7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="O7" s="4" t="s">
+      <c r="O7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="P7" s="4" t="s">
+      <c r="P7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="4" t="s">
+      <c r="Q7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="R7" s="4" t="s">
+      <c r="R7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="S7" s="4" t="s">
+      <c r="S7" s="5" t="s">
         <v>22</v>
+      </c>
+      <c r="T7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="U7" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B1:T1"/>
+    <mergeCell ref="B1:V1"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="D2:D4"/>
@@ -1268,8 +1292,8 @@
     <mergeCell ref="G2:G4"/>
     <mergeCell ref="J2:J4"/>
     <mergeCell ref="H2:I4"/>
-    <mergeCell ref="M2:P4"/>
     <mergeCell ref="K2:L4"/>
+    <mergeCell ref="M2:R4"/>
   </mergeCells>
   <pageMargins left="0.196527777777778" right="0.196527777777778" top="0.196527777777778" bottom="0.196527777777778" header="0.196527777777778" footer="0.196527777777778"/>
   <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="landscape" horizontalDpi="600"/>
